--- a/examples/simple_mlp/step_by_step_mlp.xlsx
+++ b/examples/simple_mlp/step_by_step_mlp.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="56">
   <si>
     <t xml:space="preserve">Input</t>
   </si>
@@ -69,121 +69,127 @@
     <t xml:space="preserve">Layer 1 (output)</t>
   </si>
   <si>
+    <t xml:space="preserve">Activated TANH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derevative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (output)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (weights, final)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (output, final)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back propagate (gradients)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error = ½ * (target – out)^2. Derivative = - (target – out) = (out-target)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (Local Deltas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (Sum(Delta*Weight) for layer 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (Local Deltas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (Sum(Delta*Weight) for layer 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 (Local Deltas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 (Sum(Delta*Weight) (do NOT NEED actually, because no layers before this one)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back propagate (update weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 (delta-weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 1 (new weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (delta-weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 2 (new weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (delta-weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer 3 (new weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Activated</t>
   </si>
   <si>
-    <t xml:space="preserve">Derevative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (output)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (weights, final)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (output, final)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back propagate (gradients)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning Rate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (Local Deltas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delta0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (Sum(Delta*Weight) for layer 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (Local Deltas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delta2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (Sum(Delta*Weight) for layer 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 1 (Local Deltas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 1 (Sum(Delta*Weight) (do NOT NEED actually, because no layers before this one)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back propagate (update weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 1 (delta-weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 1 (new weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (delta-weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 2 (new weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (delta-weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer 3 (new weights)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw20</t>
   </si>
 </sst>
 </file>
@@ -313,7 +319,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,6 +350,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -449,13 +463,13 @@
   </sheetPr>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F90" activeCellId="0" sqref="F90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="11.52"/>
@@ -567,11 +581,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -693,12 +707,12 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -802,11 +816,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -869,12 +883,12 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+    <row r="42" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="0" t="n">
-        <f aca="false">C33-B36</f>
+        <f aca="false">(C33-B36)</f>
         <v>-0.541668208722161</v>
       </c>
     </row>
@@ -882,7 +896,7 @@
       <c r="A43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -899,10 +913,10 @@
       <c r="A46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -932,7 +946,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="3"/>
@@ -969,10 +983,10 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -989,11 +1003,11 @@
       </c>
       <c r="B59" s="0" t="n">
         <f aca="false">F18*B53+G18*B54+H18*B55</f>
-        <v>1.78918812411974</v>
+        <v>1.78918812411975</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="3"/>
@@ -1020,12 +1034,12 @@
       <c r="C63" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -1046,7 +1060,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11"/>
+      <c r="A68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
@@ -1061,14 +1075,14 @@
       <c r="H69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="F70" s="13" t="s">
+      <c r="B70" s="14"/>
+      <c r="F70" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="13"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -1131,14 +1145,14 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="F74" s="13" t="s">
+      <c r="B74" s="14"/>
+      <c r="F74" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G74" s="13"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -1153,7 +1167,7 @@
       </c>
       <c r="D75" s="0" t="n">
         <f aca="false">-($B$39*$C$13*B53)</f>
-        <v>0.000997880880963243</v>
+        <v>0.000997880880963241</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>10</v>
@@ -1231,16 +1245,16 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="H79" s="13" t="s">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="H79" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -1323,7 +1337,7 @@
   </sheetPr>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F70" activeCellId="0" sqref="F70"/>
     </sheetView>
   </sheetViews>
@@ -1448,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>16</v>
@@ -1581,7 +1595,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>16</v>
@@ -1692,7 +1706,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>16</v>
@@ -1756,7 +1770,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">C33-B36</f>
@@ -1767,7 +1781,7 @@
       <c r="A43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1784,10 +1798,10 @@
       <c r="A46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1817,7 +1831,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="3"/>
@@ -1854,10 +1868,10 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -1878,7 +1892,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="3"/>
@@ -1905,12 +1919,12 @@
       <c r="C63" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -1931,7 +1945,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11"/>
+      <c r="A68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
@@ -1946,14 +1960,14 @@
       <c r="H69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="F70" s="13" t="s">
+      <c r="B70" s="14"/>
+      <c r="F70" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="13"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -2016,14 +2030,14 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="F74" s="13" t="s">
+      <c r="B74" s="14"/>
+      <c r="F74" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G74" s="13"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -2116,16 +2130,16 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="H79" s="13" t="s">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="H79" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -2208,13 +2222,13 @@
   </sheetPr>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F70" activeCellId="0" sqref="F70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
@@ -2331,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>16</v>
@@ -2464,7 +2478,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>16</v>
@@ -2570,12 +2584,12 @@
         <v>3.99370062019356</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>16</v>
@@ -2639,7 +2653,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">C33-B36</f>
@@ -2650,7 +2664,7 @@
       <c r="A43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2667,10 +2681,10 @@
       <c r="A46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -2700,7 +2714,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="3"/>
@@ -2737,10 +2751,10 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -2761,7 +2775,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="3"/>
@@ -2788,12 +2802,12 @@
       <c r="C63" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -2814,7 +2828,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11"/>
+      <c r="A68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
@@ -2829,14 +2843,14 @@
       <c r="H69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="F70" s="13" t="s">
+      <c r="B70" s="14"/>
+      <c r="F70" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="13"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -2899,14 +2913,14 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="F74" s="13" t="s">
+      <c r="B74" s="14"/>
+      <c r="F74" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G74" s="13"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -2999,16 +3013,16 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="H79" s="13" t="s">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="H79" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
